--- a/notebooks/FBXL4/input/FBXL4_MTDPS13_individuals.xlsx
+++ b/notebooks/FBXL4/input/FBXL4_MTDPS13_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/FBXL4/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A686A12D-9715-C244-AE35-8F49542097B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D3FB59-BF56-524B-9195-9935897C5D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="34560" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1090,15 +1090,9 @@
     <t>c.513-1G&gt;A</t>
   </si>
   <si>
-    <t xml:space="preserve">c.1652T&gt;A </t>
-  </si>
-  <si>
     <t>p.I551N</t>
   </si>
   <si>
-    <t xml:space="preserve">c.1361A&gt;C </t>
-  </si>
-  <si>
     <t>p.Q454P</t>
   </si>
   <si>
@@ -1511,6 +1505,12 @@
   </si>
   <si>
     <t>c.1389+3_1389+6del</t>
+  </si>
+  <si>
+    <t>c.1652T&gt;A</t>
+  </si>
+  <si>
+    <t>c.1361A&gt;C</t>
   </si>
 </sst>
 </file>
@@ -1987,10 +1987,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CV97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="CL1" sqref="CL1"/>
-      <selection pane="bottomLeft" activeCell="CE1" sqref="CE1:CE1048576"/>
+      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2052,22 +2052,22 @@
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>16</v>
@@ -2232,7 +2232,7 @@
         <v>59</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="CA1" s="16" t="s">
         <v>60</v>
@@ -2244,7 +2244,7 @@
         <v>62</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="CE1" s="1" t="s">
         <v>64</v>
@@ -2274,7 +2274,7 @@
         <v>71</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="CO1" s="1" t="s">
         <v>72</v>
@@ -2289,7 +2289,7 @@
         <v>75</v>
       </c>
       <c r="CS1" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="CT1" s="2" t="s">
         <v>155</v>
@@ -2298,7 +2298,7 @@
         <v>170</v>
       </c>
       <c r="CV1" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:100" x14ac:dyDescent="0.2">
@@ -2354,22 +2354,22 @@
         <v>81</v>
       </c>
       <c r="R2" t="s">
+        <v>392</v>
+      </c>
+      <c r="S2" t="s">
         <v>394</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>396</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>398</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>400</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>402</v>
-      </c>
-      <c r="W2" t="s">
-        <v>404</v>
       </c>
       <c r="X2" t="s">
         <v>82</v>
@@ -2534,7 +2534,7 @@
         <v>124</v>
       </c>
       <c r="BZ2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="CA2" t="s">
         <v>125</v>
@@ -2546,7 +2546,7 @@
         <v>127</v>
       </c>
       <c r="CD2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="CE2" t="s">
         <v>129</v>
@@ -2576,7 +2576,7 @@
         <v>136</v>
       </c>
       <c r="CN2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="CO2" t="s">
         <v>137</v>
@@ -2591,7 +2591,7 @@
         <v>140</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="CT2" t="s">
         <v>156</v>
@@ -2600,7 +2600,7 @@
         <v>171</v>
       </c>
       <c r="CV2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:100" x14ac:dyDescent="0.2">
@@ -2737,7 +2737,7 @@
         <v>149</v>
       </c>
       <c r="CS3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="CT3" t="s">
         <v>149</v>
@@ -3133,7 +3133,7 @@
         <v>149</v>
       </c>
       <c r="CS7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:100" x14ac:dyDescent="0.2">
@@ -3804,7 +3804,7 @@
         <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K14" t="s">
         <v>253</v>
@@ -4581,7 +4581,7 @@
         <v>149</v>
       </c>
       <c r="CS20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="CT20" t="s">
         <v>149</v>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="24" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B24" t="s">
         <v>286</v>
@@ -4937,7 +4937,7 @@
         <v>238</v>
       </c>
       <c r="N24" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O24" s="8" t="s">
         <v>163</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="25" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B25" t="s">
         <v>286</v>
@@ -5132,7 +5132,7 @@
         <v>162</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O25" s="8" t="s">
         <v>198</v>
@@ -5291,7 +5291,7 @@
     </row>
     <row r="26" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B26" t="s">
         <v>286</v>
@@ -5327,7 +5327,7 @@
         <v>238</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="O26" s="8" t="s">
         <v>163</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="27" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B27" t="s">
         <v>286</v>
@@ -5681,7 +5681,7 @@
     </row>
     <row r="28" spans="1:100" ht="56" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B28" t="s">
         <v>286</v>
@@ -5714,10 +5714,10 @@
         <v>335</v>
       </c>
       <c r="M28" s="17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O28" s="8" t="s">
         <v>163</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="29" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B29" t="s">
         <v>286</v>
@@ -5915,7 +5915,7 @@
         <v>162</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="O29" s="8" t="s">
         <v>198</v>
@@ -6074,7 +6074,7 @@
     </row>
     <row r="30" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B30" t="s">
         <v>293</v>
@@ -6110,7 +6110,7 @@
         <v>271</v>
       </c>
       <c r="N30" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O30" s="8" t="s">
         <v>198</v>
@@ -6269,7 +6269,7 @@
     </row>
     <row r="31" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B31" t="s">
         <v>293</v>
@@ -6464,7 +6464,7 @@
     </row>
     <row r="32" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B32" t="s">
         <v>293</v>
@@ -6656,7 +6656,7 @@
     </row>
     <row r="33" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B33" t="s">
         <v>293</v>
@@ -6848,7 +6848,7 @@
     </row>
     <row r="34" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B34" t="s">
         <v>293</v>
@@ -6881,7 +6881,7 @@
         <v>162</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O34" s="8" t="s">
         <v>198</v>
@@ -7040,7 +7040,7 @@
     </row>
     <row r="35" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B35" t="s">
         <v>293</v>
@@ -7463,7 +7463,7 @@
         <v>162</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O37" s="8" t="s">
         <v>163</v>
@@ -7646,19 +7646,19 @@
         <v>145</v>
       </c>
       <c r="J38" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="L38" s="9" t="s">
         <v>344</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>345</v>
       </c>
       <c r="M38" s="17" t="s">
         <v>162</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="O38" s="8" t="s">
         <v>163</v>
@@ -7841,19 +7841,19 @@
         <v>145</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>346</v>
+        <v>484</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>346</v>
+        <v>484</v>
       </c>
       <c r="L39" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M39" s="17" t="s">
         <v>162</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="O39" s="8" t="s">
         <v>163</v>
@@ -8036,19 +8036,19 @@
         <v>145</v>
       </c>
       <c r="J40" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="L40" t="s">
         <v>348</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="L40" t="s">
-        <v>350</v>
       </c>
       <c r="M40" s="17" t="s">
         <v>162</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O40" s="8" t="s">
         <v>163</v>
@@ -8231,13 +8231,13 @@
         <v>145</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M41" s="17" t="s">
         <v>162</v>
@@ -8429,13 +8429,13 @@
         <v>145</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L42" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="M42" s="17" t="s">
         <v>162</v>
@@ -8822,16 +8822,16 @@
         <v>262</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M44" s="17" t="s">
         <v>162</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O44" s="8" t="s">
         <v>163</v>
@@ -9017,13 +9017,13 @@
         <v>262</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M45" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="O45" s="8" t="s">
         <v>163</v>
@@ -9206,19 +9206,19 @@
         <v>145</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K46" s="8" t="s">
         <v>258</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M46" s="18" t="s">
         <v>162</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="O46" s="8" t="s">
         <v>163</v>
@@ -9404,16 +9404,16 @@
         <v>248</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M47" s="18" t="s">
         <v>162</v>
       </c>
       <c r="N47" s="17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="O47" s="8" t="s">
         <v>198</v>
@@ -9596,13 +9596,13 @@
         <v>145</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M48" s="18" t="s">
         <v>162</v>
@@ -9797,7 +9797,7 @@
         <v>338</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M49" s="18" t="s">
         <v>162</v>
@@ -9995,7 +9995,7 @@
         <v>271</v>
       </c>
       <c r="N50" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>163</v>
@@ -10184,13 +10184,13 @@
         <v>333</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M51" s="17" t="s">
         <v>238</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>163</v>
@@ -10379,7 +10379,7 @@
         <v>262</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M52" s="17" t="s">
         <v>273</v>
@@ -10574,13 +10574,13 @@
         <v>258</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M53" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N53" s="17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>163</v>
@@ -10763,19 +10763,19 @@
         <v>145</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>256</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="M54" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N54" s="17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>163</v>
@@ -11153,13 +11153,13 @@
         <v>145</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M56" s="17" t="s">
         <v>81</v>
@@ -11345,13 +11345,13 @@
         <v>145</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K57" s="9" t="s">
         <v>275</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M57" s="18" t="s">
         <v>162</v>
@@ -11543,7 +11543,7 @@
         <v>217</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M58" s="18" t="s">
         <v>162</v>
@@ -11738,13 +11738,13 @@
         <v>275</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M59" s="18" t="s">
         <v>162</v>
       </c>
       <c r="N59" s="20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>163</v>
@@ -11933,10 +11933,10 @@
         <v>255</v>
       </c>
       <c r="M60" s="17" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="N60" s="20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>163</v>
@@ -12095,13 +12095,13 @@
     </row>
     <row r="61" spans="1:100" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>403</v>
+      </c>
+      <c r="B61" t="s">
+        <v>404</v>
+      </c>
+      <c r="C61" t="s">
         <v>405</v>
-      </c>
-      <c r="B61" t="s">
-        <v>406</v>
-      </c>
-      <c r="C61" t="s">
-        <v>407</v>
       </c>
       <c r="E61" t="s">
         <v>141</v>
@@ -12119,19 +12119,19 @@
         <v>145</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M61" s="17" t="s">
         <v>162</v>
       </c>
       <c r="N61" s="17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="O61" s="8" t="s">
         <v>163</v>
@@ -12304,13 +12304,13 @@
     </row>
     <row r="62" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B62" t="s">
+        <v>404</v>
+      </c>
+      <c r="C62" t="s">
         <v>406</v>
-      </c>
-      <c r="C62" t="s">
-        <v>408</v>
       </c>
       <c r="E62" t="s">
         <v>141</v>
@@ -12328,16 +12328,16 @@
         <v>145</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M62" s="17" t="s">
         <v>162</v>
       </c>
       <c r="N62" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>163</v>
@@ -12510,13 +12510,13 @@
     </row>
     <row r="63" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B63" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E63" t="s">
         <v>141</v>
@@ -12546,7 +12546,7 @@
         <v>162</v>
       </c>
       <c r="N63" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O63" s="8" t="s">
         <v>163</v>
@@ -12719,13 +12719,13 @@
     </row>
     <row r="64" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B64" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E64" t="s">
         <v>141</v>
@@ -12749,13 +12749,13 @@
         <v>258</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M64" s="17" t="s">
         <v>81</v>
       </c>
       <c r="N64" s="17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="O64" s="8" t="s">
         <v>163</v>
@@ -12928,13 +12928,13 @@
     </row>
     <row r="65" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B65" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E65" t="s">
         <v>141</v>
@@ -12964,7 +12964,7 @@
         <v>162</v>
       </c>
       <c r="N65" s="17" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O65" s="8" t="s">
         <v>198</v>
@@ -13137,13 +13137,13 @@
     </row>
     <row r="66" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B66" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E66" t="s">
         <v>141</v>
@@ -13173,7 +13173,7 @@
         <v>162</v>
       </c>
       <c r="N66" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O66" s="10" t="s">
         <v>163</v>
@@ -13340,13 +13340,13 @@
     </row>
     <row r="67" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B67" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E67" t="s">
         <v>141</v>
@@ -13364,13 +13364,13 @@
         <v>145</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M67" s="17" t="s">
         <v>162</v>
@@ -13552,13 +13552,13 @@
     </row>
     <row r="68" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B68" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E68" t="s">
         <v>141</v>
@@ -13576,13 +13576,13 @@
         <v>145</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M68" s="17" t="s">
         <v>81</v>
@@ -13761,13 +13761,13 @@
     </row>
     <row r="69" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B69" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E69" t="s">
         <v>141</v>
@@ -13785,10 +13785,10 @@
         <v>145</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M69" s="17" t="s">
         <v>162</v>
@@ -13964,13 +13964,13 @@
     </row>
     <row r="70" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B70" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E70" t="s">
         <v>141</v>
@@ -14000,7 +14000,7 @@
         <v>162</v>
       </c>
       <c r="N70" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="O70" s="10" t="s">
         <v>198</v>
@@ -14173,13 +14173,13 @@
     </row>
     <row r="71" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B71" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E71" t="s">
         <v>141</v>
@@ -14197,19 +14197,19 @@
         <v>145</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M71" s="17" t="s">
         <v>162</v>
       </c>
       <c r="N71" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O71" s="10" t="s">
         <v>163</v>
@@ -14382,13 +14382,13 @@
     </row>
     <row r="72" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B72" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E72" t="s">
         <v>141</v>
@@ -14406,13 +14406,13 @@
         <v>145</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M72" s="17" t="s">
         <v>162</v>
@@ -14588,13 +14588,13 @@
     </row>
     <row r="73" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B73" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E73" t="s">
         <v>141</v>
@@ -14612,19 +14612,19 @@
         <v>145</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M73" s="17" t="s">
         <v>162</v>
       </c>
       <c r="N73" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O73" s="10" t="s">
         <v>163</v>
@@ -14800,13 +14800,13 @@
     </row>
     <row r="74" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B74" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E74" t="s">
         <v>141</v>
@@ -14824,16 +14824,16 @@
         <v>145</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M74" s="17" t="s">
         <v>162</v>
       </c>
       <c r="N74" s="17" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O74" s="10" t="s">
         <v>163</v>
@@ -15009,13 +15009,13 @@
     </row>
     <row r="75" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B75" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E75" t="s">
         <v>141</v>
@@ -15033,16 +15033,16 @@
         <v>145</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M75" s="17" t="s">
         <v>162</v>
       </c>
       <c r="N75" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="O75" s="10" t="s">
         <v>163</v>
@@ -15218,13 +15218,13 @@
     </row>
     <row r="76" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B76" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E76" t="s">
         <v>141</v>
@@ -15242,16 +15242,16 @@
         <v>145</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M76" s="17" t="s">
         <v>231</v>
       </c>
       <c r="N76" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="O76" s="10" t="s">
         <v>163</v>
@@ -15427,13 +15427,13 @@
     </row>
     <row r="77" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B77" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E77" t="s">
         <v>141</v>
@@ -15451,13 +15451,13 @@
         <v>145</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M77" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N77" s="17" t="s">
         <v>241</v>
@@ -15636,13 +15636,13 @@
     </row>
     <row r="78" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B78" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E78" t="s">
         <v>141</v>
@@ -15660,16 +15660,16 @@
         <v>145</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M78" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N78" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O78" s="10" t="s">
         <v>163</v>
@@ -15845,13 +15845,13 @@
     </row>
     <row r="79" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B79" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E79" t="s">
         <v>141</v>
@@ -15869,16 +15869,16 @@
         <v>145</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M79" s="17" t="s">
         <v>241</v>
       </c>
       <c r="N79" s="17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="O79" s="10" t="s">
         <v>163</v>
@@ -16054,13 +16054,13 @@
     </row>
     <row r="80" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B80" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E80" t="s">
         <v>141</v>
@@ -16078,16 +16078,16 @@
         <v>145</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M80" s="17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="N80" s="17" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="O80" s="10" t="s">
         <v>163</v>
@@ -16263,13 +16263,13 @@
     </row>
     <row r="81" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B81" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E81" t="s">
         <v>141</v>
@@ -16287,16 +16287,16 @@
         <v>145</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M81" s="17" t="s">
         <v>169</v>
       </c>
       <c r="N81" s="17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="O81" s="10" t="s">
         <v>163</v>
@@ -16472,13 +16472,13 @@
     </row>
     <row r="82" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B82" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E82" t="s">
         <v>141</v>
@@ -16496,16 +16496,16 @@
         <v>145</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M82" s="17" t="s">
         <v>241</v>
       </c>
       <c r="N82" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O82" s="10" t="s">
         <v>163</v>
@@ -16681,13 +16681,13 @@
     </row>
     <row r="83" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B83" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E83" t="s">
         <v>141</v>
@@ -16705,16 +16705,16 @@
         <v>145</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M83" s="17" t="s">
         <v>241</v>
       </c>
       <c r="N83" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O83" s="10" t="s">
         <v>163</v>
@@ -16890,13 +16890,13 @@
     </row>
     <row r="84" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B84" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E84" t="s">
         <v>141</v>
@@ -16914,16 +16914,16 @@
         <v>145</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M84" s="17" t="s">
         <v>271</v>
       </c>
       <c r="N84" s="17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="O84" s="10" t="s">
         <v>163</v>
@@ -17099,13 +17099,13 @@
     </row>
     <row r="85" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B85" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E85" t="s">
         <v>141</v>
@@ -17129,13 +17129,13 @@
         <v>258</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M85" s="17" t="s">
         <v>162</v>
       </c>
       <c r="N85" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O85" s="10" t="s">
         <v>163</v>
@@ -17311,13 +17311,13 @@
     </row>
     <row r="86" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B86" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E86" t="s">
         <v>141</v>
@@ -17335,19 +17335,19 @@
         <v>145</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K86" s="8" t="s">
         <v>258</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M86" s="17" t="s">
         <v>162</v>
       </c>
       <c r="N86" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="O86" s="10" t="s">
         <v>163</v>
@@ -17523,13 +17523,13 @@
     </row>
     <row r="87" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B87" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E87" t="s">
         <v>141</v>
@@ -17547,13 +17547,13 @@
         <v>145</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M87" s="17" t="s">
         <v>162</v>
@@ -17735,13 +17735,13 @@
     </row>
     <row r="88" spans="1:100" ht="56" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B88" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E88" t="s">
         <v>141</v>
@@ -17762,10 +17762,10 @@
         <v>248</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M88" s="17" t="s">
         <v>162</v>
@@ -17947,13 +17947,13 @@
     </row>
     <row r="89" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B89" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E89" t="s">
         <v>141</v>
@@ -17971,13 +17971,13 @@
         <v>145</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M89" s="17" t="s">
         <v>273</v>
@@ -18159,13 +18159,13 @@
     </row>
     <row r="90" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B90" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E90" t="s">
         <v>141</v>
@@ -18183,19 +18183,19 @@
         <v>145</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M90" s="17" t="s">
         <v>162</v>
       </c>
       <c r="N90" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O90" s="10" t="s">
         <v>163</v>
@@ -18371,13 +18371,13 @@
     </row>
     <row r="91" spans="1:100" ht="112" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B91" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E91" t="s">
         <v>141</v>
@@ -18395,13 +18395,13 @@
         <v>145</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K91" s="5" t="s">
         <v>248</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="M91" s="17" t="s">
         <v>162</v>
@@ -18583,13 +18583,13 @@
     </row>
     <row r="92" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B92" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E92" t="s">
         <v>141</v>
@@ -18607,13 +18607,13 @@
         <v>145</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="M92" s="17" t="s">
         <v>162</v>
@@ -18795,13 +18795,13 @@
     </row>
     <row r="93" spans="1:100" ht="42" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B93" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E93" t="s">
         <v>141</v>
@@ -18819,19 +18819,19 @@
         <v>145</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K93" s="5" t="s">
         <v>250</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="M93" s="17" t="s">
         <v>162</v>
       </c>
       <c r="N93" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="O93" s="10" t="s">
         <v>198</v>
@@ -19007,13 +19007,13 @@
     </row>
     <row r="94" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B94" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E94" t="s">
         <v>141</v>
@@ -19031,19 +19031,19 @@
         <v>145</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K94" s="5" t="s">
         <v>258</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M94" s="17" t="s">
         <v>162</v>
       </c>
       <c r="N94" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="O94" s="10" t="s">
         <v>163</v>
@@ -19219,13 +19219,13 @@
     </row>
     <row r="95" spans="1:100" ht="28" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B95" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E95" t="s">
         <v>141</v>
@@ -19249,7 +19249,7 @@
         <v>336</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M95" s="17" t="s">
         <v>162</v>
@@ -19431,13 +19431,13 @@
     </row>
     <row r="96" spans="1:100" ht="70" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B96" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E96" t="s">
         <v>141</v>
@@ -19455,19 +19455,19 @@
         <v>145</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M96" s="17" t="s">
         <v>162</v>
       </c>
       <c r="N96" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O96" s="10" t="s">
         <v>163</v>
@@ -19643,13 +19643,13 @@
     </row>
     <row r="97" spans="1:100" ht="56" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B97" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E97" t="s">
         <v>141</v>
@@ -19667,16 +19667,16 @@
         <v>145</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M97" s="17" t="s">
         <v>271</v>
       </c>
       <c r="N97" s="17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="O97" s="10" t="s">
         <v>163</v>

--- a/notebooks/FBXL4/input/FBXL4_MTDPS13_individuals.xlsx
+++ b/notebooks/FBXL4/input/FBXL4_MTDPS13_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/FBXL4/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/FBXL4/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D3FB59-BF56-524B-9195-9935897C5D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5380AEB-D49B-BE4C-A7A3-9FEC7E3C07DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="34560" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1987,15 +1987,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CV97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="CL1" sqref="CL1"/>
-      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="45" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -4707,6 +4708,9 @@
       <c r="B22" t="s">
         <v>277</v>
       </c>
+      <c r="C22">
+        <v>34602956</v>
+      </c>
       <c r="E22" t="s">
         <v>141</v>
       </c>
